--- a/F_dataset/DUD-E/AKT2/AKT2_preprocessing/AKT2_valid.xlsx
+++ b/F_dataset/DUD-E/AKT2/AKT2_preprocessing/AKT2_valid.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V33"/>
+  <dimension ref="A1:V32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE83760&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D8740&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE83B50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BFDF0&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE82D50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BD9A0&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -752,7 +752,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CHEMBL260670</t>
+          <t>CHEMBL252455</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -760,12 +760,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>c1ccc(-c2cc3cccnc3nc2-c2ccc(CN3CCC(c4n[nH]c(-c5ccccn5)n4)CC3)cc2)cc1</t>
+          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CNCCc4nnc(N)s4)cc3)nc2n1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>c1ccc(-c2cc3cccnc3nc2-c2ccc(CN3CCC(c4n[nH]c(-c5ccccn5)n4)CC3)cc2)cc1</t>
+          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CNCCc4nnc(N)s4)cc3)nc2n1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -779,25 +779,25 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>523.64</v>
+        <v>485.64</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>83.48</v>
+        <v>102.5</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE82C00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BE180&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHEMBL252455</t>
+          <t>CHEMBL228811</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -828,44 +828,44 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CNCCc4nnc(N)s4)cc3)nc2n1</t>
+          <t>C/C(=C1/C(=O)Nc2ccc(NC(N)=O)cc21)c1cc(CNC(=O)C2CNCCN2)c[nH]1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CNCCc4nnc(N)s4)cc3)nc2n1</t>
+          <t>C/C(=C1/C(=O)Nc2ccc(NC(N)=O)cc21)c1cc(CNC(=O)C2CNCCN2)c[nH]1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>G1 active</t>
+          <t>G2 active</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>485.64</v>
+        <v>423.48</v>
       </c>
       <c r="H6" t="n">
+        <v>7</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4</v>
+      </c>
+      <c r="L6" t="n">
         <v>2</v>
       </c>
-      <c r="I6" t="n">
-        <v>8</v>
-      </c>
-      <c r="J6" t="n">
-        <v>8</v>
-      </c>
-      <c r="K6" t="n">
-        <v>5</v>
-      </c>
-      <c r="L6" t="n">
-        <v>5</v>
-      </c>
       <c r="M6" t="n">
-        <v>102.5</v>
+        <v>153.17</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE82880&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BE570&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -888,7 +888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CHEMBL228811</t>
+          <t>CHEMBL522351</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -896,12 +896,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C/C(=C1/C(=O)Nc2ccc(NC(N)=O)cc21)c1cc(CNC(=O)C2CNCCN2)c[nH]1</t>
+          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OCCCNC[C@H](O)CO)c21</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>C/C(=C1/C(=O)Nc2ccc(NC(N)=O)cc21)c1cc(CNC(=O)C2CNCCN2)c[nH]1</t>
+          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OCCCNC[C@H](O)CO)c21</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -915,25 +915,25 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>423.48</v>
+        <v>459.51</v>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>153.17</v>
+        <v>177.6</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE82730&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BECE0&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE82650&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BD000&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CHEMBL521658</t>
+          <t>CHEMBL446966</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1032,12 +1032,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OCC3CCNCC3)c21</t>
+          <t>COc1ccc(-c2nnc(C3CCN(Cc4ccc(-c5nc6cc[nH]c(=O)c6cc5-c5ccccc5)cc4)CC3)[nH]2)cn1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OCC3CCNCC3)c21</t>
+          <t>COc1ccc(-c2nnc(C3CCN(Cc4ccc(-c5nc6cc[nH]c(=O)c6cc5-c5ccccc5)cc4)CC3)[nH]2)cn1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>425.49</v>
+        <v>569.67</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
-        <v>137.14</v>
+        <v>112.68</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE82180&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BD150&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1092,7 +1092,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CHEMBL446966</t>
+          <t>CHEMBL228750</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1100,12 +1100,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>COc1ccc(-c2nnc(C3CCN(Cc4ccc(-c5nc6cc[nH]c(=O)c6cc5-c5ccccc5)cc4)CC3)[nH]2)cn1</t>
+          <t>NC(=O)Nc1ccc2c(c1)/C(=C/c1cc(C(=O)NCCc3ccncc3)c[nH]1)C(=O)N2</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>COc1ccc(-c2nnc(C3CCN(Cc4ccc(-c5nc6cc[nH]c(=O)c6cc5-c5ccccc5)cc4)CC3)[nH]2)cn1</t>
+          <t>NC(=O)Nc1ccc2c(c1)/C(=C/c1cc(C(=O)NCCc3ccncc3)c[nH]1)C(=O)N2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1119,25 +1119,25 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>569.67</v>
+        <v>416.44</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>112.68</v>
+        <v>142</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE81EE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BD540&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1160,7 +1160,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CHEMBL228750</t>
+          <t>CHEMBL259753</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NC(=O)Nc1ccc2c(c1)/C(=C/c1cc(C(=O)NCCc3ccncc3)c[nH]1)C(=O)N2</t>
+          <t>c1ccc(-c2cc3ncccc3nc2-c2ccc(CN3CCC(c4n[nH]c(-c5ccccn5)n4)CC3)cc2)cc1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NC(=O)Nc1ccc2c(c1)/C(=C/c1cc(C(=O)NCCc3ccncc3)c[nH]1)C(=O)N2</t>
+          <t>c1ccc(-c2cc3ncccc3nc2-c2ccc(CN3CCC(c4n[nH]c(-c5ccccn5)n4)CC3)cc2)cc1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1187,25 +1187,25 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>416.44</v>
+        <v>523.64</v>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J11" t="n">
         <v>6</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M11" t="n">
-        <v>142</v>
+        <v>83.48</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE814D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BDD20&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE81380&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BDFC0&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1296,7 +1296,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CHEMBL260184</t>
+          <t>CHEMBL252856</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1304,12 +1304,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>O=c1ccc(-c2cc(C3CCN(Cc4ccc(-c5nc6ncccc6cc5-c5ccccc5)cc4)CC3)n[nH]2)c[nH]1</t>
+          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CN4CCC(C(=O)Nc5ccncc5)CC4)cc3)nc2n1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>O=c1ccc(-c2cc(C3CCN(Cc4ccc(-c5nc6ncccc6cc5-c5ccccc5)cc4)CC3)n[nH]2)c[nH]1</t>
+          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CN4CCC(C(=O)Nc5ccncc5)CC4)cc3)nc2n1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1323,25 +1323,25 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>538.66</v>
+        <v>546.7</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
+        <v>7</v>
+      </c>
+      <c r="J13" t="n">
+        <v>7</v>
+      </c>
+      <c r="K13" t="n">
+        <v>6</v>
+      </c>
+      <c r="L13" t="n">
         <v>5</v>
       </c>
-      <c r="J13" t="n">
-        <v>6</v>
-      </c>
-      <c r="K13" t="n">
-        <v>7</v>
-      </c>
-      <c r="L13" t="n">
-        <v>6</v>
-      </c>
       <c r="M13" t="n">
-        <v>90.56</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE81150&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BE340&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1364,52 +1364,52 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CHEMBL252856</t>
+          <t>C05813804</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CN4CCC(C(=O)Nc5ccncc5)CC4)cc3)nc2n1</t>
+          <t>O=[N+]([O-])c1ccc([C@@H](Nc2[nH+]cccc2O)c2ccc3cccnc3c2O)cc1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CN4CCC(C(=O)Nc5ccncc5)CC4)cc3)nc2n1</t>
+          <t>O=[N+]([O-])c1ccc([C@@H](Nc2[nH+]cccc2O)c2ccc3cccnc3c2O)cc1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G2 inactive</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>546.7</v>
+        <v>389.39</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>83.90000000000001</v>
+        <v>122.66</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE838B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BE0A0&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>C05813804</t>
+          <t>C00854408</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1440,12 +1440,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>O=[N+]([O-])c1ccc([C@@H](Nc2[nH+]cccc2O)c2ccc3cccnc3c2O)cc1</t>
+          <t>Cc1cc(Br)c(Nc2nc(NN)nc(N3CCOCC3)n2)cc1Cl</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>O=[N+]([O-])c1ccc([C@@H](Nc2[nH+]cccc2O)c2ccc3cccnc3c2O)cc1</t>
+          <t>Cc1cc(Br)c(Nc2nc(NN)nc(N3CCOCC3)n2)cc1Cl</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1459,25 +1459,25 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>389.39</v>
+        <v>414.7</v>
       </c>
       <c r="H15" t="n">
         <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M15" t="n">
-        <v>122.66</v>
+        <v>101.22</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FEBB920&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BEB90&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1500,7 +1500,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>C00854408</t>
+          <t>C38970785</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1508,12 +1508,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Cc1cc(Br)c(Nc2nc(NN)nc(N3CCOCC3)n2)cc1Cl</t>
+          <t>Cc1csc(NC(=O)[C@@H]2Sc3nc(-c4cccs4)ccc3[C@@H]2[NH3+])n1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Cc1cc(Br)c(Nc2nc(NN)nc(N3CCOCC3)n2)cc1Cl</t>
+          <t>Cc1csc(NC(=O)[C@@H]2Sc3nc(-c4cccs4)ccc3[C@@H]2[NH3+])n1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>414.7</v>
+        <v>375.52</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>101.22</v>
+        <v>82.52</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FEBB290&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BD5B0&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1568,7 +1568,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>C38970785</t>
+          <t>C65381931</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Cc1csc(NC(=O)[C@@H]2Sc3nc(-c4cccs4)ccc3[C@@H]2[NH3+])n1</t>
+          <t>Cc1ccc2c(c1)c(CNc1nc(C)[nH+]c3c1CC[NH2+]CC3)nn2C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Cc1csc(NC(=O)[C@@H]2Sc3nc(-c4cccs4)ccc3[C@@H]2[NH3+])n1</t>
+          <t>Cc1ccc2c(c1)c(CNc1nc(C)[nH+]c3c1CC[NH2+]CC3)nn2C</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1595,13 +1595,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>375.52</v>
+        <v>338.46</v>
       </c>
       <c r="H17" t="n">
         <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
         <v>3</v>
@@ -1613,7 +1613,7 @@
         <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>82.52</v>
+        <v>73.48999999999999</v>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FEBBDF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BEE30&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>C65381931</t>
+          <t>C40757444</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1644,12 +1644,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Cc1ccc2c(c1)c(CNc1nc(C)[nH+]c3c1CC[NH2+]CC3)nn2C</t>
+          <t>Cc1ccccc1Nc1[nH+]cnc(NNc2ccccc2)c1N</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Cc1ccc2c(c1)c(CNc1nc(C)[nH+]c3c1CC[NH2+]CC3)nn2C</t>
+          <t>Cc1ccccc1Nc1[nH+]cnc(NNc2ccccc2)c1N</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1663,25 +1663,25 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>338.46</v>
+        <v>307.38</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L18" t="n">
         <v>3</v>
       </c>
       <c r="M18" t="n">
-        <v>73.48999999999999</v>
+        <v>89.14</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1692,7 +1692,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FEBB990&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BF7D0&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1704,7 +1704,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>C40757444</t>
+          <t>C64981610</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1712,12 +1712,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Cc1ccccc1Nc1[nH+]cnc(NNc2ccccc2)c1N</t>
+          <t>COc1cc(/C=N/Nc2nnc3c4ccccc4n(C)c3n2)cc(Br)c1OCc1ccccc1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Cc1ccccc1Nc1[nH+]cnc(NNc2ccccc2)c1N</t>
+          <t>COc1cc(/C=N/Nc2nnc3c4ccccc4n(C)c3n2)cc(Br)c1OCc1ccccc1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1731,25 +1731,25 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>307.38</v>
+        <v>517.39</v>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J19" t="n">
+        <v>7</v>
+      </c>
+      <c r="K19" t="n">
         <v>5</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>5</v>
       </c>
-      <c r="K19" t="n">
-        <v>3</v>
-      </c>
-      <c r="L19" t="n">
-        <v>3</v>
-      </c>
       <c r="M19" t="n">
-        <v>89.14</v>
+        <v>86.45</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1760,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FEB98C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BFD80&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1772,7 +1772,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>C64981610</t>
+          <t>C39305635</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1780,12 +1780,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>COc1cc(/C=N/Nc2nnc3c4ccccc4n(C)c3n2)cc(Br)c1OCc1ccccc1</t>
+          <t>C[C@@H]1NN(C)C=C1[C@@H](C)[NH2+]Cc1cc(-c2ccc(F)cc2)[nH]n1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>COc1cc(/C=N/Nc2nnc3c4ccccc4n(C)c3n2)cc(Br)c1OCc1ccccc1</t>
+          <t>C[C@@H]1NN(C)C=C1[C@@H](C)[NH2+]Cc1cc(-c2ccc(F)cc2)[nH]n1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1799,25 +1799,25 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>517.39</v>
+        <v>316.4</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M20" t="n">
-        <v>86.45</v>
+        <v>60.56</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1828,7 +1828,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FEBBE60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BFA70&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1840,7 +1840,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>C39305635</t>
+          <t>C31167254</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>C[C@@H]1NN(C)C=C1[C@@H](C)[NH2+]Cc1cc(-c2ccc(F)cc2)[nH]n1</t>
+          <t>CC(C)=CCC[C@@](C)(O[C@@H]1O[C@@H](CO)[C@@H](O)[C@@H](O)[C@@H]1O)[C@H]1CC[C@@](C)(O)[C@@H]1C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>C[C@@H]1NN(C)C=C1[C@@H](C)[NH2+]Cc1cc(-c2ccc(F)cc2)[nH]n1</t>
+          <t>CC(C)=CCC[C@@](C)(O[C@@H]1O[C@@H](CO)[C@@H](O)[C@@H](O)[C@@H]1O)[C@H]1CC[C@@](C)(O)[C@@H]1C</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1867,25 +1867,25 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>316.4</v>
+        <v>402.53</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J21" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>60.56</v>
+        <v>119.61</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FEB9E70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BFED0&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1908,7 +1908,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>C31167254</t>
+          <t>C39710801</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1916,12 +1916,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CC(C)=CCC[C@@](C)(O[C@@H]1O[C@@H](CO)[C@@H](O)[C@@H](O)[C@@H]1O)[C@H]1CC[C@@](C)(O)[C@@H]1C</t>
+          <t>COCCn1nnnc1[C@H]([C@@H]1C=c2cccc(C)c2=[NH+]C1=O)N1CCN(c2cccc(C(F)(F)F)c2)CC1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>CC(C)=CCC[C@@](C)(O[C@@H]1O[C@@H](CO)[C@@H](O)[C@@H](O)[C@@H]1O)[C@H]1CC[C@@](C)(O)[C@@H]1C</t>
+          <t>COCCn1nnnc1[C@H]([C@@H]1C=c2cccc(C)c2=[NH+]C1=O)N1CCN(c2cccc(C(F)(F)F)c2)CC1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1935,10 +1935,10 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>402.53</v>
+        <v>528.5599999999999</v>
       </c>
       <c r="H22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>7</v>
@@ -1947,13 +1947,13 @@
         <v>7</v>
       </c>
       <c r="K22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>119.61</v>
+        <v>90.34999999999999</v>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -1964,7 +1964,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FEBA500&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BF6F0&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -1976,7 +1976,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>C39710801</t>
+          <t>C04959822</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1984,12 +1984,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>COCCn1nnnc1[C@H]([C@@H]1C=c2cccc(C)c2=[NH+]C1=O)N1CCN(c2cccc(C(F)(F)F)c2)CC1</t>
+          <t>Cc1ccc(/N=N\c2cc(C)ccc2N[C@@H]2O[C@@H](C)[C@@H](O)[C@@H](O)[C@H]2O)cc1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>COCCn1nnnc1[C@H]([C@@H]1C=c2cccc(C)c2=[NH+]C1=O)N1CCN(c2cccc(C(F)(F)F)c2)CC1</t>
+          <t>Cc1ccc(/N=N\c2cc(C)ccc2N[C@@H]2O[C@@H](C)[C@@H](O)[C@@H](O)[C@H]2O)cc1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1999,29 +1999,29 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>528.5599999999999</v>
+        <v>371.44</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J23" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M23" t="n">
-        <v>90.34999999999999</v>
+        <v>106.67</v>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
@@ -2032,7 +2032,7 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FEB9C40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BEF80&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2044,7 +2044,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>C04959822</t>
+          <t>C40561838</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2052,12 +2052,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Cc1ccc(/N=N\c2cc(C)ccc2N[C@@H]2O[C@@H](C)[C@@H](O)[C@@H](O)[C@H]2O)cc1</t>
+          <t>CCc1ccc2oc3c(c(=O)c2c1)[C@H](c1cccc(OCc2ccc(Cl)cc2)c1)N(CCC[NH+](C)C)C3=O</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Cc1ccc(/N=N\c2cc(C)ccc2N[C@@H]2O[C@@H](C)[C@@H](O)[C@@H](O)[C@H]2O)cc1</t>
+          <t>CCc1ccc2oc3c(c(=O)c2c1)[C@H](c1cccc(OCc2ccc(Cl)cc2)c1)N(CCC[NH+](C)C)C3=O</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2071,25 +2071,25 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>371.44</v>
+        <v>532.0599999999999</v>
       </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
+        <v>4</v>
+      </c>
+      <c r="J24" t="n">
+        <v>9</v>
+      </c>
+      <c r="K24" t="n">
         <v>5</v>
       </c>
-      <c r="J24" t="n">
-        <v>4</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3</v>
-      </c>
       <c r="L24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
-        <v>106.67</v>
+        <v>64.19</v>
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
@@ -2100,7 +2100,7 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FEBA420&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BF0D0&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2112,7 +2112,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>C40561838</t>
+          <t>C60379926</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2120,12 +2120,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CCc1ccc2oc3c(c(=O)c2c1)[C@H](c1cccc(OCc2ccc(Cl)cc2)c1)N(CCC[NH+](C)C)C3=O</t>
+          <t>OC1CCC(Nc2nc(NC3CCC(O)CC3)c3ccccc3[nH+]2)CC1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>CCc1ccc2oc3c(c(=O)c2c1)[C@H](c1cccc(OCc2ccc(Cl)cc2)c1)N(CCC[NH+](C)C)C3=O</t>
+          <t>OC1CCC(Nc2nc(NC3CCC(O)CC3)c3ccccc3[nH+]2)CC1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2139,25 +2139,25 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>532.0599999999999</v>
+        <v>357.48</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J25" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M25" t="n">
-        <v>64.19</v>
+        <v>91.55</v>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
@@ -2168,7 +2168,7 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FEBB370&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BFA00&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2180,7 +2180,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>C60379926</t>
+          <t>C31773411</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2188,12 +2188,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>OC1CCC(Nc2nc(NC3CCC(O)CC3)c3ccccc3[nH+]2)CC1</t>
+          <t>CC(C)SCc1cc(=O)[nH]c(=S)[nH]1</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>OC1CCC(Nc2nc(NC3CCC(O)CC3)c3ccccc3[nH+]2)CC1</t>
+          <t>CC(C)SCc1cc(=O)[nH]c(=S)[nH]1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2207,25 +2207,25 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>357.48</v>
+        <v>216.33</v>
       </c>
       <c r="H26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>91.55</v>
+        <v>48.65</v>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
@@ -2236,7 +2236,7 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FEB9A80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BD070&gt;</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -2248,7 +2248,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>C31773411</t>
+          <t>C14927517</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2256,12 +2256,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CC(C)SCc1cc(=O)[nH]c(=S)[nH]1</t>
+          <t>CC(C)[NH+](CC(N)=O)CC(=O)Nc1ccc(S(=O)(=O)N2C[C@H](C)C[C@@H](C)C2)cc1</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>CC(C)SCc1cc(=O)[nH]c(=S)[nH]1</t>
+          <t>CC(C)[NH+](CC(N)=O)CC(=O)Nc1ccc(S(=O)(=O)N2C[C@H](C)C[C@@H](C)C2)cc1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2275,25 +2275,25 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>216.33</v>
+        <v>425.58</v>
       </c>
       <c r="H27" t="n">
+        <v>3</v>
+      </c>
+      <c r="I27" t="n">
+        <v>4</v>
+      </c>
+      <c r="J27" t="n">
+        <v>8</v>
+      </c>
+      <c r="K27" t="n">
         <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>3</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3</v>
-      </c>
-      <c r="K27" t="n">
-        <v>1</v>
       </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>48.65</v>
+        <v>114.01</v>
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
@@ -2304,7 +2304,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FEBA810&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BF3E0&gt;</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -2316,7 +2316,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>C14927517</t>
+          <t>CHEMBL2420903</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2324,12 +2324,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CC(C)[NH+](CC(N)=O)CC(=O)Nc1ccc(S(=O)(=O)N2C[C@H](C)C[C@@H](C)C2)cc1</t>
+          <t>COC(=O)C1CCC2(CCN(c3ncnc4[nH]cnc34)CC2)NC1</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>CC(C)[NH+](CC(N)=O)CC(=O)Nc1ccc(S(=O)(=O)N2C[C@H](C)C[C@@H](C)C2)cc1</t>
+          <t>COC(=O)C1CCC2(CCN(c3ncnc4[nH]cnc34)CC2)NC1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2339,40 +2339,66 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>External</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>425.58</v>
+        <v>330.39</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J28" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K28" t="n">
+        <v>4</v>
+      </c>
+      <c r="L28" t="n">
         <v>2</v>
       </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
       <c r="M28" t="n">
-        <v>114.01</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
+        <v>96.03</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Inhibition</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>'='</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>19</v>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>CHEMBL2424336</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Inhibition of AKT2 (unknown origin) at 30 uM by microfluidic mobility shift assay relative to control</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>single protein format</t>
+        </is>
+      </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FEB95B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BF140&gt;</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -2384,7 +2410,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CHEMBL2420903</t>
+          <t>CHEMBL160586</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2392,12 +2418,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>COC(=O)C1CCC2(CCN(c3ncnc4[nH]cnc34)CC2)NC1</t>
+          <t>O=C1NC(=O)C(c2ccccc2[N+](=O)[O-])=C1Nc1ccc(Cl)c(C(=O)O)c1</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>COC(=O)C1CCC2(CCN(c3ncnc4[nH]cnc34)CC2)NC1</t>
+          <t>O=C1NC(=O)C(c2ccccc2[N+](=O)[O-])=C1Nc1ccc(Cl)c(C(=O)O)c1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2411,25 +2437,25 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>330.39</v>
+        <v>387.74</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I29" t="n">
         <v>7</v>
       </c>
       <c r="J29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L29" t="n">
         <v>2</v>
       </c>
       <c r="M29" t="n">
-        <v>96.03</v>
+        <v>138.64</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2447,16 +2473,16 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>CHEMBL2424336</t>
+          <t>CHEMBL768272</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>Inhibition of AKT2 (unknown origin) at 30 uM by microfluidic mobility shift assay relative to control</t>
+          <t>Inhibition of Protein kinase B,beta at 10 uM</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
@@ -2466,7 +2492,7 @@
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FEBB610&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BEAB0&gt;</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -2478,7 +2504,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CHEMBL160586</t>
+          <t>CHEMBL84558</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2486,12 +2512,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)C(c2ccccc2[N+](=O)[O-])=C1Nc1ccc(Cl)c(C(=O)O)c1</t>
+          <t>CCCOc1ccc(/C=C2\SC(=O)NC2=O)cc1</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)C(c2ccccc2[N+](=O)[O-])=C1Nc1ccc(Cl)c(C(=O)O)c1</t>
+          <t>CCCOc1ccc(/C=C2\SC(=O)NC2=O)cc1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2505,25 +2531,25 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>387.74</v>
+        <v>263.32</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>138.64</v>
+        <v>55.4</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2541,16 +2567,16 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>CHEMBL768272</t>
+          <t>CHEMBL1012667</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>Inhibition of Protein kinase B,beta at 10 uM</t>
+          <t>Inhibition of AKT2 at 5 uM</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
@@ -2560,7 +2586,7 @@
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FEBB140&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BE810&gt;</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -2572,7 +2598,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CHEMBL84558</t>
+          <t>CHEMBL1170749</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2580,12 +2606,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CCCOc1ccc(/C=C2\SC(=O)NC2=O)cc1</t>
+          <t>OCc1ccc(-c2cn3c(-c4cn[nH]c4)cnc3cn2)cc1</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>CCCOc1ccc(/C=C2\SC(=O)NC2=O)cc1</t>
+          <t>OCc1ccc(-c2cn3c(-c4cn[nH]c4)cnc3cn2)cc1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2599,25 +2625,25 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>263.32</v>
+        <v>291.31</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M31" t="n">
-        <v>55.4</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2635,16 +2661,16 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>-1</v>
+        <v>-8</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>CHEMBL1012667</t>
+          <t>CHEMBL1173998</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>Inhibition of AKT2 at 5 uM</t>
+          <t>Inhibition of AKT2 at 10 uM by mobility shift assay</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
@@ -2654,7 +2680,7 @@
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FEBA340&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BE730&gt;</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -2666,7 +2692,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CHEMBL1170749</t>
+          <t>CHEMBL231013</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2674,12 +2700,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>OCc1ccc(-c2cn3c(-c4cn[nH]c4)cnc3cn2)cc1</t>
+          <t>COc1ccc(-c2ccncc2)cc1C(N)=O</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>OCc1ccc(-c2cn3c(-c4cn[nH]c4)cnc3cn2)cc1</t>
+          <t>COc1ccc(-c2ccncc2)cc1C(N)=O</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2693,25 +2719,25 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>291.31</v>
+        <v>228.25</v>
       </c>
       <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3</v>
+      </c>
+      <c r="K32" t="n">
         <v>2</v>
       </c>
-      <c r="I32" t="n">
-        <v>4</v>
-      </c>
-      <c r="J32" t="n">
-        <v>3</v>
-      </c>
-      <c r="K32" t="n">
-        <v>4</v>
-      </c>
       <c r="L32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M32" t="n">
-        <v>79.09999999999999</v>
+        <v>65.20999999999999</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2729,16 +2755,16 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>-8</v>
+        <v>1.24</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>CHEMBL1173998</t>
+          <t>CHEMBL1961877</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>Inhibition of AKT2 at 10 uM by mobility shift assay</t>
+          <t>GSK_PKIS: AKT2 mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
@@ -2748,104 +2774,10 @@
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FEB9BD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3DA260&gt;</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
-        <is>
-          <t>G2</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>CHEMBL231013</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>COc1ccc(-c2ccncc2)cc1C(N)=O</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>COc1ccc(-c2ccncc2)cc1C(N)=O</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
-        <v>228.25</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>3</v>
-      </c>
-      <c r="J33" t="n">
-        <v>3</v>
-      </c>
-      <c r="K33" t="n">
-        <v>2</v>
-      </c>
-      <c r="L33" t="n">
-        <v>2</v>
-      </c>
-      <c r="M33" t="n">
-        <v>65.20999999999999</v>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q33" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>CHEMBL1961877</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: AKT2 mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FEBBAE0&gt;</t>
-        </is>
-      </c>
-      <c r="V33" t="inlineStr">
         <is>
           <t>G2</t>
         </is>

--- a/F_dataset/DUD-E/AKT2/AKT2_preprocessing/AKT2_valid.xlsx
+++ b/F_dataset/DUD-E/AKT2/AKT2_preprocessing/AKT2_valid.xlsx
@@ -548,7 +548,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CHEMBL375236</t>
+          <t>CHEMBL494088</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -556,12 +556,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NC(=O)Nc1ccc2c(c1)/C(=C/c1cc(-c3cccnc3)c[nH]1)C(=O)N2</t>
+          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OCC3CCNC3)c21</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NC(=O)Nc1ccc2c(c1)/C(=C/c1cc(-c3cccnc3)c[nH]1)C(=O)N2</t>
+          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OCC3CCNC3)c21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -575,16 +575,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>345.36</v>
+        <v>411.47</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K2" t="n">
         <v>4</v>
@@ -593,7 +593,7 @@
         <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>112.9</v>
+        <v>137.14</v>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D8740&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A32306D770&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CHEMBL1096634</t>
+          <t>CHEMBL447114</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -624,12 +624,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)nc(OC[C@H](N)c3ccccc3)cc21</t>
+          <t>O=c1[nH]ccc2nc(-c3ccc(CN4CCC(c5nnc(-c6ncccn6)[nH]5)CC4)cc3)c(-c3ccccc3)cc12</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)nc(OC[C@H](N)c3ccccc3)cc21</t>
+          <t>O=c1[nH]ccc2nc(-c3ccc(CN4CCC(c5nnc(-c6ncccn6)[nH]5)CC4)cc3)c(-c3ccccc3)cc12</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -643,25 +643,25 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>447.5</v>
+        <v>540.63</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
         <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>151.13</v>
+        <v>116.34</v>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BFDF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A32306D690&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -684,7 +684,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CHEMBL603197</t>
+          <t>CHEMBL448926</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -692,12 +692,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2cnc(-c3cc(OC[C@@H](N)Cc4c[nH]c5ccccc45)cnc3-c3ccoc3)nc12</t>
+          <t>c1ccc(-c2cc3cnc(-n4ccnc4)nc3nc2-c2ccc(CN3CCC(c4nnc(-c5ccccn5)[nH]4)CC3)cc2)cc1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2cnc(-c3cc(OC[C@@H](N)Cc4c[nH]c5ccccc45)cnc3-c3ccoc3)nc12</t>
+          <t>c1ccc(-c2cc3cnc(-n4ccnc4)nc3nc2-c2ccc(CN3CCC(c4nnc(-c5ccccn5)[nH]4)CC3)cc2)cc1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -711,25 +711,25 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>465.52</v>
+        <v>590.7</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J4" t="n">
         <v>7</v>
       </c>
       <c r="K4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>131.53</v>
+        <v>114.19</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BD9A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A32306D8C0&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -752,7 +752,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CHEMBL252455</t>
+          <t>CHEMBL272292</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -760,12 +760,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CNCCc4nnc(N)s4)cc3)nc2n1</t>
+          <t>O=C(O)c1ccc2nc(-c3ccc(CN4CCC(n5c(=O)[nH]c6ccccc65)CC4)cc3)c(-c3ccccc3)nc2c1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CNCCc4nnc(N)s4)cc3)nc2n1</t>
+          <t>O=C(O)c1ccc2nc(-c3ccc(CN4CCC(n5c(=O)[nH]c6ccccc65)CC4)cc3)c(-c3ccccc3)nc2c1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -779,25 +779,25 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>485.64</v>
+        <v>555.64</v>
       </c>
       <c r="H5" t="n">
         <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>102.5</v>
+        <v>104.11</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BE180&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A32306D9A0&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHEMBL228811</t>
+          <t>CHEMBL228867</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -828,12 +828,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C/C(=C1/C(=O)Nc2ccc(NC(N)=O)cc21)c1cc(CNC(=O)C2CNCCN2)c[nH]1</t>
+          <t>C/C(=C1/C(=O)Nc2ccc(NC(N)=O)cc21)c1cc(CNC(=O)CCN2CCCCC2)c[nH]1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>C/C(=C1/C(=O)Nc2ccc(NC(N)=O)cc21)c1cc(CNC(=O)C2CNCCN2)c[nH]1</t>
+          <t>C/C(=C1/C(=O)Nc2ccc(NC(N)=O)cc21)c1cc(CNC(=O)CCN2CCCCC2)c[nH]1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -847,16 +847,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>423.48</v>
+        <v>450.54</v>
       </c>
       <c r="H6" t="n">
+        <v>5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" t="n">
         <v>7</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>5</v>
       </c>
       <c r="K6" t="n">
         <v>4</v>
@@ -865,7 +865,7 @@
         <v>2</v>
       </c>
       <c r="M6" t="n">
-        <v>153.17</v>
+        <v>132.35</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BE570&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A32306DA10&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BECE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A32306DA80&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -956,7 +956,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CHEMBL470598</t>
+          <t>CHEMBL446966</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -964,12 +964,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NC[C@H](CC1CCCCC1)NC(=O)c1cc(Br)c(-c2ccnc3[nH]ccc23)s1</t>
+          <t>COc1ccc(-c2nnc(C3CCN(Cc4ccc(-c5nc6cc[nH]c(=O)c6cc5-c5ccccc5)cc4)CC3)[nH]2)cn1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NC[C@H](CC1CCCCC1)NC(=O)c1cc(Br)c(-c2ccnc3[nH]ccc23)s1</t>
+          <t>COc1ccc(-c2nnc(C3CCN(Cc4ccc(-c5nc6cc[nH]c(=O)c6cc5-c5ccccc5)cc4)CC3)[nH]2)cn1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -983,25 +983,25 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>461.43</v>
+        <v>569.67</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J8" t="n">
+        <v>7</v>
+      </c>
+      <c r="K8" t="n">
+        <v>7</v>
+      </c>
+      <c r="L8" t="n">
         <v>6</v>
       </c>
-      <c r="K8" t="n">
-        <v>4</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3</v>
-      </c>
       <c r="M8" t="n">
-        <v>83.8</v>
+        <v>112.68</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BD000&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A32306DD90&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CHEMBL446966</t>
+          <t>CHEMBL228750</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1032,12 +1032,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>COc1ccc(-c2nnc(C3CCN(Cc4ccc(-c5nc6cc[nH]c(=O)c6cc5-c5ccccc5)cc4)CC3)[nH]2)cn1</t>
+          <t>NC(=O)Nc1ccc2c(c1)/C(=C/c1cc(C(=O)NCCc3ccncc3)c[nH]1)C(=O)N2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>COc1ccc(-c2nnc(C3CCN(Cc4ccc(-c5nc6cc[nH]c(=O)c6cc5-c5ccccc5)cc4)CC3)[nH]2)cn1</t>
+          <t>NC(=O)Nc1ccc2c(c1)/C(=C/c1cc(C(=O)NCCc3ccncc3)c[nH]1)C(=O)N2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>569.67</v>
+        <v>416.44</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>112.68</v>
+        <v>142</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BD150&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A32306DE00&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1092,7 +1092,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CHEMBL228750</t>
+          <t>CHEMBL259753</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1100,12 +1100,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NC(=O)Nc1ccc2c(c1)/C(=C/c1cc(C(=O)NCCc3ccncc3)c[nH]1)C(=O)N2</t>
+          <t>c1ccc(-c2cc3ncccc3nc2-c2ccc(CN3CCC(c4n[nH]c(-c5ccccn5)n4)CC3)cc2)cc1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NC(=O)Nc1ccc2c(c1)/C(=C/c1cc(C(=O)NCCc3ccncc3)c[nH]1)C(=O)N2</t>
+          <t>c1ccc(-c2cc3ncccc3nc2-c2ccc(CN3CCC(c4n[nH]c(-c5ccccn5)n4)CC3)cc2)cc1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1119,25 +1119,25 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>416.44</v>
+        <v>523.64</v>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J10" t="n">
         <v>6</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>142</v>
+        <v>83.48</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BD540&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A32306DE70&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1160,7 +1160,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CHEMBL259753</t>
+          <t>CHEMBL403356</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>c1ccc(-c2cc3ncccc3nc2-c2ccc(CN3CCC(c4n[nH]c(-c5ccccn5)n4)CC3)cc2)cc1</t>
+          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CN4CCC(c5nnc(N)s5)CC4)cc3)nc2n1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>c1ccc(-c2cc3ncccc3nc2-c2ccc(CN3CCC(c4n[nH]c(-c5ccccn5)n4)CC3)cc2)cc1</t>
+          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CN4CCC(c5nnc(N)s5)CC4)cc3)nc2n1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1187,25 +1187,25 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>523.64</v>
+        <v>525.71</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J11" t="n">
         <v>6</v>
       </c>
       <c r="K11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>83.48</v>
+        <v>93.70999999999999</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BDD20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A32306DEE0&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BDFC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A32306DF50&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BE340&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A32306DFC0&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1364,7 +1364,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>C05813804</t>
+          <t>C00854408</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1372,12 +1372,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>O=[N+]([O-])c1ccc([C@@H](Nc2[nH+]cccc2O)c2ccc3cccnc3c2O)cc1</t>
+          <t>Cc1cc(Br)c(Nc2nc(NN)nc(N3CCOCC3)n2)cc1Cl</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>O=[N+]([O-])c1ccc([C@@H](Nc2[nH+]cccc2O)c2ccc3cccnc3c2O)cc1</t>
+          <t>Cc1cc(Br)c(Nc2nc(NN)nc(N3CCOCC3)n2)cc1Cl</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1391,25 +1391,25 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>389.39</v>
+        <v>414.7</v>
       </c>
       <c r="H14" t="n">
         <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
-        <v>122.66</v>
+        <v>101.22</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BE0A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A3230933E0&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>C00854408</t>
+          <t>C38970785</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1440,12 +1440,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Cc1cc(Br)c(Nc2nc(NN)nc(N3CCOCC3)n2)cc1Cl</t>
+          <t>Cc1csc(NC(=O)[C@@H]2Sc3nc(-c4cccs4)ccc3[C@@H]2[NH3+])n1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Cc1cc(Br)c(Nc2nc(NN)nc(N3CCOCC3)n2)cc1Cl</t>
+          <t>Cc1csc(NC(=O)[C@@H]2Sc3nc(-c4cccs4)ccc3[C@@H]2[NH3+])n1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1459,25 +1459,25 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>414.7</v>
+        <v>375.52</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
+        <v>3</v>
+      </c>
+      <c r="K15" t="n">
         <v>4</v>
       </c>
-      <c r="K15" t="n">
-        <v>3</v>
-      </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
-        <v>101.22</v>
+        <v>82.52</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BEB90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A3230923B0&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1500,7 +1500,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>C38970785</t>
+          <t>C67126209</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1508,12 +1508,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Cc1csc(NC(=O)[C@@H]2Sc3nc(-c4cccs4)ccc3[C@@H]2[NH3+])n1</t>
+          <t>NC(=O)C1CCN(C(=O)CCCC[C@H]2SC[C@H]3NC(=O)N[C@H]32)CC1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Cc1csc(NC(=O)[C@@H]2Sc3nc(-c4cccs4)ccc3[C@@H]2[NH3+])n1</t>
+          <t>NC(=O)C1CCN(C(=O)CCCC[C@H]2SC[C@H]3NC(=O)N[C@H]32)CC1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>375.52</v>
+        <v>354.48</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>82.52</v>
+        <v>104.53</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BD5B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A3230902E0&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1568,7 +1568,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>C65381931</t>
+          <t>C36202507</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Cc1ccc2c(c1)c(CNc1nc(C)[nH+]c3c1CC[NH2+]CC3)nn2C</t>
+          <t>Cc1ccc(C[NH+](Cc2ccc(C(O)(c3ccccc3C)c3ccccc3C)o2)C[C@@H]2CCCO2)o1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Cc1ccc2c(c1)c(CNc1nc(C)[nH+]c3c1CC[NH2+]CC3)nn2C</t>
+          <t>Cc1ccc(C[NH+](Cc2ccc(C(O)(c3ccccc3C)c3ccccc3C)o2)C[C@@H]2CCCO2)o1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1595,25 +1595,25 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>338.46</v>
+        <v>486.63</v>
       </c>
       <c r="H17" t="n">
         <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K17" t="n">
+        <v>5</v>
+      </c>
+      <c r="L17" t="n">
         <v>4</v>
       </c>
-      <c r="L17" t="n">
-        <v>3</v>
-      </c>
       <c r="M17" t="n">
-        <v>73.48999999999999</v>
+        <v>60.18</v>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BEE30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A323090970&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>C40757444</t>
+          <t>C10658655</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1644,12 +1644,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Cc1ccccc1Nc1[nH+]cnc(NNc2ccccc2)c1N</t>
+          <t>Cc1sc2nc([C@@H](C)Sc3nc(N)cc(N)n3)nc(N)c2c1C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Cc1ccccc1Nc1[nH+]cnc(NNc2ccccc2)c1N</t>
+          <t>Cc1sc2nc([C@@H](C)Sc3nc(N)cc(N)n3)nc(N)c2c1C</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1663,16 +1663,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>307.38</v>
+        <v>347.47</v>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
         <v>3</v>
@@ -1681,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="M18" t="n">
-        <v>89.14</v>
+        <v>129.62</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1692,7 +1692,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BF7D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A323090A50&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1704,7 +1704,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>C64981610</t>
+          <t>C01711862</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1712,12 +1712,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>COc1cc(/C=N/Nc2nnc3c4ccccc4n(C)c3n2)cc(Br)c1OCc1ccccc1</t>
+          <t>O=C1NC(=O)C(=C2CCCCC2)N1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>COc1cc(/C=N/Nc2nnc3c4ccccc4n(C)c3n2)cc(Br)c1OCc1ccccc1</t>
+          <t>O=C1NC(=O)C(=C2CCCCC2)N1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1731,25 +1731,25 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>517.39</v>
+        <v>180.21</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>86.45</v>
+        <v>58.2</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1760,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BFD80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A323091070&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1772,7 +1772,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>C39305635</t>
+          <t>C64981610</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1780,12 +1780,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>C[C@@H]1NN(C)C=C1[C@@H](C)[NH2+]Cc1cc(-c2ccc(F)cc2)[nH]n1</t>
+          <t>COc1cc(/C=N/Nc2nnc3c4ccccc4n(C)c3n2)cc(Br)c1OCc1ccccc1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>C[C@@H]1NN(C)C=C1[C@@H](C)[NH2+]Cc1cc(-c2ccc(F)cc2)[nH]n1</t>
+          <t>COc1cc(/C=N/Nc2nnc3c4ccccc4n(C)c3n2)cc(Br)c1OCc1ccccc1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1799,25 +1799,25 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>316.4</v>
+        <v>517.39</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J20" t="n">
+        <v>7</v>
+      </c>
+      <c r="K20" t="n">
         <v>5</v>
       </c>
-      <c r="K20" t="n">
-        <v>3</v>
-      </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M20" t="n">
-        <v>60.56</v>
+        <v>86.45</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1828,7 +1828,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BFA70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A323091850&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1840,7 +1840,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>C31167254</t>
+          <t>C11730929</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CC(C)=CCC[C@@](C)(O[C@@H]1O[C@@H](CO)[C@@H](O)[C@@H](O)[C@@H]1O)[C@H]1CC[C@@](C)(O)[C@@H]1C</t>
+          <t>C[C@@H](O)C[NH+]1Cc2cccc(N)c2C1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>CC(C)=CCC[C@@](C)(O[C@@H]1O[C@@H](CO)[C@@H](O)[C@@H](O)[C@@H]1O)[C@H]1CC[C@@](C)(O)[C@@H]1C</t>
+          <t>C[C@@H](O)C[NH+]1Cc2cccc(N)c2C1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1867,25 +1867,25 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>402.53</v>
+        <v>193.27</v>
       </c>
       <c r="H21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
         <v>2</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>119.61</v>
+        <v>50.69</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BFED0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A323091D90&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1908,7 +1908,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>C39710801</t>
+          <t>C31167254</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1916,12 +1916,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>COCCn1nnnc1[C@H]([C@@H]1C=c2cccc(C)c2=[NH+]C1=O)N1CCN(c2cccc(C(F)(F)F)c2)CC1</t>
+          <t>CC(C)=CCC[C@@](C)(O[C@@H]1O[C@@H](CO)[C@@H](O)[C@@H](O)[C@@H]1O)[C@H]1CC[C@@](C)(O)[C@@H]1C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>COCCn1nnnc1[C@H]([C@@H]1C=c2cccc(C)c2=[NH+]C1=O)N1CCN(c2cccc(C(F)(F)F)c2)CC1</t>
+          <t>CC(C)=CCC[C@@](C)(O[C@@H]1O[C@@H](CO)[C@@H](O)[C@@H](O)[C@@H]1O)[C@H]1CC[C@@](C)(O)[C@@H]1C</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1935,10 +1935,10 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>528.5599999999999</v>
+        <v>402.53</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I22" t="n">
         <v>7</v>
@@ -1947,13 +1947,13 @@
         <v>7</v>
       </c>
       <c r="K22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>90.34999999999999</v>
+        <v>119.61</v>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -1964,7 +1964,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BF6F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A323091E70&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -1976,7 +1976,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>C04959822</t>
+          <t>C12290233</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1984,12 +1984,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Cc1ccc(/N=N\c2cc(C)ccc2N[C@@H]2O[C@@H](C)[C@@H](O)[C@@H](O)[C@H]2O)cc1</t>
+          <t>CCOC(=O)C1CC[NH+]([C@@H](c2ccc(F)cc2)c2cc(CC)sc2NC(=O)c2ccccc2)CC1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Cc1ccc(/N=N\c2cc(C)ccc2N[C@@H]2O[C@@H](C)[C@@H](O)[C@@H](O)[C@H]2O)cc1</t>
+          <t>CCOC(=O)C1CC[NH+]([C@@H](c2ccc(F)cc2)c2cc(CC)sc2NC(=O)c2ccccc2)CC1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1999,29 +1999,29 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>371.44</v>
+        <v>495.64</v>
       </c>
       <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3</v>
+      </c>
+      <c r="J23" t="n">
+        <v>8</v>
+      </c>
+      <c r="K23" t="n">
         <v>4</v>
       </c>
-      <c r="I23" t="n">
-        <v>5</v>
-      </c>
-      <c r="J23" t="n">
-        <v>4</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3</v>
-      </c>
       <c r="L23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M23" t="n">
-        <v>106.67</v>
+        <v>59.84</v>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
@@ -2032,7 +2032,7 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BEF80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A323091EE0&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2044,7 +2044,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>C40561838</t>
+          <t>C67293254</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2052,12 +2052,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CCc1ccc2oc3c(c(=O)c2c1)[C@H](c1cccc(OCc2ccc(Cl)cc2)c1)N(CCC[NH+](C)C)C3=O</t>
+          <t>NC(=O)c1ccc(/[NH+]=c2\oc3cc(O)ccc3cc2C(=O)Nc2ccccn2)cc1</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>CCc1ccc2oc3c(c(=O)c2c1)[C@H](c1cccc(OCc2ccc(Cl)cc2)c1)N(CCC[NH+](C)C)C3=O</t>
+          <t>NC(=O)c1ccc(/[NH+]=c2\oc3cc(O)ccc3cc2C(=O)Nc2ccccn2)cc1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2067,29 +2067,29 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>532.0599999999999</v>
+        <v>401.4</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I24" t="n">
+        <v>5</v>
+      </c>
+      <c r="J24" t="n">
         <v>4</v>
       </c>
-      <c r="J24" t="n">
-        <v>9</v>
-      </c>
       <c r="K24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L24" t="n">
         <v>4</v>
       </c>
       <c r="M24" t="n">
-        <v>64.19</v>
+        <v>132.42</v>
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
@@ -2100,7 +2100,7 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BF0D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A323092180&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2112,7 +2112,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>C60379926</t>
+          <t>C39500580</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2120,12 +2120,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>OC1CCC(Nc2nc(NC3CCC(O)CC3)c3ccccc3[nH+]2)CC1</t>
+          <t>CC(C)[C@@H]1c2[nH]c3ccccc3c2CCN1C(=O)CSC1=CC=C2N=[NH+][C@H](c3cccnc3)N2N1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>OC1CCC(Nc2nc(NC3CCC(O)CC3)c3ccccc3[nH+]2)CC1</t>
+          <t>CC(C)[C@@H]1c2[nH]c3ccccc3c2CCN1C(=O)CSC1=CC=C2N=[NH+][C@H](c3cccnc3)N2N1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2135,29 +2135,29 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>357.48</v>
+        <v>486.63</v>
       </c>
       <c r="H25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I25" t="n">
         <v>5</v>
       </c>
       <c r="J25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M25" t="n">
-        <v>91.55</v>
+        <v>90.59</v>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
@@ -2168,7 +2168,7 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BFA00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A3230921F0&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2180,7 +2180,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>C31773411</t>
+          <t>C63479973</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2188,12 +2188,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CC(C)SCc1cc(=O)[nH]c(=S)[nH]1</t>
+          <t>Cc1ccc2c(c1C)NC(=O)[C@]21N[C@@H](CC2=c3ccccc3=[NH+]C2)[C@H]2C(=O)N(c3ccccc3)C(=O)[C@H]21</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>CC(C)SCc1cc(=O)[nH]c(=S)[nH]1</t>
+          <t>Cc1ccc2c(c1C)NC(=O)[C@]21N[C@@H](CC2=c3ccccc3=[NH+]C2)[C@H]2C(=O)N(c3ccccc3)C(=O)[C@H]21</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2203,29 +2203,29 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>216.33</v>
+        <v>491.57</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J26" t="n">
         <v>3</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M26" t="n">
-        <v>48.65</v>
+        <v>92.48</v>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
@@ -2236,7 +2236,7 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BD070&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A323092EA0&gt;</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -2248,7 +2248,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>C14927517</t>
+          <t>C04235333</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2256,12 +2256,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CC(C)[NH+](CC(N)=O)CC(=O)Nc1ccc(S(=O)(=O)N2C[C@H](C)C[C@@H](C)C2)cc1</t>
+          <t>CN1/C(=C/C=C2CCCC(/C=C/C3=[N+](C)c4ccc([N+](=O)[O-])cc4C3(C)C)=C2Cl)C(C)(C)c2cc([N+](=O)[O-])ccc21</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>CC(C)[NH+](CC(N)=O)CC(=O)Nc1ccc(S(=O)(=O)N2C[C@H](C)C[C@@H](C)C2)cc1</t>
+          <t>CN1/C(=C/C=C2CCCC(/C=C/C3=[N+](C)c4ccc([N+](=O)[O-])cc4C3(C)C)=C2Cl)C(C)(C)c2cc([N+](=O)[O-])ccc21</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2271,29 +2271,29 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>425.58</v>
+        <v>574.1</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J27" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K27" t="n">
+        <v>5</v>
+      </c>
+      <c r="L27" t="n">
         <v>2</v>
       </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
       <c r="M27" t="n">
-        <v>114.01</v>
+        <v>92.53</v>
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
@@ -2304,7 +2304,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BF3E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A323093D10&gt;</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -2316,7 +2316,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CHEMBL2420903</t>
+          <t>C40982444</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2324,12 +2324,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>COC(=O)C1CCC2(CCN(c3ncnc4[nH]cnc34)CC2)NC1</t>
+          <t>CCCCOc1ccc(Br)cc1[C@H]1C(C(N)=O)=C(C)Nc2nc(SCCC)nn21</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>COC(=O)C1CCC2(CCN(c3ncnc4[nH]cnc34)CC2)NC1</t>
+          <t>CCCCOc1ccc(Br)cc1[C@H]1C(C(N)=O)=C(C)Nc2nc(SCCC)nn21</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2339,66 +2339,40 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>330.39</v>
+        <v>480.43</v>
       </c>
       <c r="H28" t="n">
         <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J28" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L28" t="n">
         <v>2</v>
       </c>
       <c r="M28" t="n">
-        <v>96.03</v>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q28" t="n">
-        <v>19</v>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>CHEMBL2424336</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT2 (unknown origin) at 30 uM by microfluidic mobility shift assay relative to control</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>95.06</v>
+      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BF140&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A323092420&gt;</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -2410,7 +2384,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CHEMBL160586</t>
+          <t>C04769474</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2418,12 +2392,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)C(c2ccccc2[N+](=O)[O-])=C1Nc1ccc(Cl)c(C(=O)O)c1</t>
+          <t>COc1cc([C@H]2c3cc(O)c(OC)cc3C[C@H](C(=O)[O-])[C@@H]2CO)ccc1O</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)C(c2ccccc2[N+](=O)[O-])=C1Nc1ccc(Cl)c(C(=O)O)c1</t>
+          <t>COc1cc([C@H]2c3cc(O)c(OC)cc3C[C@H](C(=O)[O-])[C@@H]2CO)ccc1O</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2433,11 +2407,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>387.74</v>
+        <v>373.38</v>
       </c>
       <c r="H29" t="n">
         <v>3</v>
@@ -2455,44 +2429,18 @@
         <v>2</v>
       </c>
       <c r="M29" t="n">
-        <v>138.64</v>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>CHEMBL768272</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>Inhibition of Protein kinase B,beta at 10 uM</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>119.28</v>
+      </c>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BEAB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A323092FF0&gt;</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -2504,7 +2452,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CHEMBL84558</t>
+          <t>C42399444</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2512,12 +2460,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CCCOc1ccc(/C=C2\SC(=O)NC2=O)cc1</t>
+          <t>C[NH+](Cc1cc(Br)cs1)Cc1ccccc1/C(N)=N/O</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>CCCOc1ccc(/C=C2\SC(=O)NC2=O)cc1</t>
+          <t>C[NH+](Cc1cc(Br)cs1)Cc1ccccc1/C(N)=N/O</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2527,66 +2475,40 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>263.32</v>
+        <v>355.28</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K30" t="n">
         <v>2</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M30" t="n">
-        <v>55.4</v>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>CHEMBL1012667</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT2 at 5 uM</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>63.05</v>
+      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BE810&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A323093370&gt;</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -2598,7 +2520,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CHEMBL1170749</t>
+          <t>C39684195</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2606,12 +2528,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>OCc1ccc(-c2cn3c(-c4cn[nH]c4)cnc3cn2)cc1</t>
+          <t>Cc1cccc2c(CCNC(=O)[C@@H]3CN(C(=O)[C@@H]4COc5ccccc5O4)CC34CC[NH2+]CC4)c[nH]c12</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>OCc1ccc(-c2cn3c(-c4cn[nH]c4)cnc3cn2)cc1</t>
+          <t>Cc1cccc2c(CCNC(=O)[C@@H]3CN(C(=O)[C@@H]4COc5ccccc5O4)CC34CC[NH2+]CC4)c[nH]c12</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2621,66 +2543,40 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>291.31</v>
+        <v>503.62</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K31" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M31" t="n">
-        <v>79.09999999999999</v>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q31" t="n">
-        <v>-8</v>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>CHEMBL1173998</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT2 at 10 uM by mobility shift assay</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>100.27</v>
+      </c>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D4BE730&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A323092CE0&gt;</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -2692,7 +2588,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CHEMBL231013</t>
+          <t>C14927517</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2700,12 +2596,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>COc1ccc(-c2ccncc2)cc1C(N)=O</t>
+          <t>CC(C)[NH+](CC(N)=O)CC(=O)Nc1ccc(S(=O)(=O)N2C[C@H](C)C[C@@H](C)C2)cc1</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>COc1ccc(-c2ccncc2)cc1C(N)=O</t>
+          <t>CC(C)[NH+](CC(N)=O)CC(=O)Nc1ccc(S(=O)(=O)N2C[C@H](C)C[C@@H](C)C2)cc1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2715,66 +2611,40 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>228.25</v>
+        <v>425.58</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J32" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K32" t="n">
         <v>2</v>
       </c>
       <c r="L32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>65.20999999999999</v>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>CHEMBL1961877</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: AKT2 mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>114.01</v>
+      </c>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3DA260&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A323090CF0&gt;</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
